--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F10-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F10-F3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.302434</v>
+        <v>0.8499576666666666</v>
       </c>
       <c r="H2">
-        <v>6.907302</v>
+        <v>2.549873</v>
       </c>
       <c r="I2">
-        <v>0.04159862281395116</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="J2">
-        <v>0.04160827812275102</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N2">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O2">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P2">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q2">
-        <v>0.9818768166899999</v>
+        <v>0.1329991091262222</v>
       </c>
       <c r="R2">
-        <v>8.836891350209999</v>
+        <v>1.196991982136</v>
       </c>
       <c r="S2">
-        <v>0.0002889995677699996</v>
+        <v>9.136516395898009E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002938479926679214</v>
+        <v>9.177639689684122E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.302434</v>
+        <v>0.8499576666666666</v>
       </c>
       <c r="H3">
-        <v>6.907302</v>
+        <v>2.549873</v>
       </c>
       <c r="I3">
-        <v>0.04159862281395116</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="J3">
-        <v>0.04160827812275102</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>170.848841</v>
       </c>
       <c r="O3">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P3">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q3">
-        <v>131.122726792998</v>
+        <v>48.40476074968811</v>
       </c>
       <c r="R3">
-        <v>1180.104541136982</v>
+        <v>435.6428467471929</v>
       </c>
       <c r="S3">
-        <v>0.03859385487453082</v>
+        <v>0.03325216936673836</v>
       </c>
       <c r="T3">
-        <v>0.03924132783902111</v>
+        <v>0.03340183677504158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.302434</v>
+        <v>0.8499576666666666</v>
       </c>
       <c r="H4">
-        <v>6.907302</v>
+        <v>2.549873</v>
       </c>
       <c r="I4">
-        <v>0.04159862281395116</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="J4">
-        <v>0.04160827812275102</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N4">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O4">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P4">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q4">
-        <v>0.8098719497640001</v>
+        <v>0.09507541463566666</v>
       </c>
       <c r="R4">
-        <v>7.288847547876</v>
+        <v>0.855678731721</v>
       </c>
       <c r="S4">
-        <v>0.0002383727158564111</v>
+        <v>6.531307543129285E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002423717952303403</v>
+        <v>6.560704839348679E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.302434</v>
+        <v>0.8499576666666666</v>
       </c>
       <c r="H5">
-        <v>6.907302</v>
+        <v>2.549873</v>
       </c>
       <c r="I5">
-        <v>0.04159862281395116</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="J5">
-        <v>0.04160827812275102</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N5">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O5">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P5">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q5">
-        <v>6.899021296119</v>
+        <v>0.6655398018569999</v>
       </c>
       <c r="R5">
-        <v>41.394127776714</v>
+        <v>3.993238811141999</v>
       </c>
       <c r="S5">
-        <v>0.002030615387514444</v>
+        <v>0.0004571997024444966</v>
       </c>
       <c r="T5">
-        <v>0.001376454781820736</v>
+        <v>0.0003061716999818627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.302434</v>
+        <v>0.8499576666666666</v>
       </c>
       <c r="H6">
-        <v>6.907302</v>
+        <v>2.549873</v>
       </c>
       <c r="I6">
-        <v>0.04159862281395116</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="J6">
-        <v>0.04160827812275102</v>
+        <v>0.03401165737590862</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N6">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O6">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P6">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q6">
-        <v>1.51793717535</v>
+        <v>0.2119627262325555</v>
       </c>
       <c r="R6">
-        <v>13.66143457815</v>
+        <v>1.907664536093</v>
       </c>
       <c r="S6">
-        <v>0.0004467802682794841</v>
+        <v>0.0001456100673354934</v>
       </c>
       <c r="T6">
-        <v>0.0004542757140109129</v>
+        <v>0.0001462654555948459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.84771233333333</v>
+        <v>20.72916433333333</v>
       </c>
       <c r="H7">
-        <v>38.543137</v>
+        <v>62.187493</v>
       </c>
       <c r="I7">
-        <v>0.232122675124013</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="J7">
-        <v>0.2321765522948462</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N7">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O7">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P7">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q7">
-        <v>5.47892833740389</v>
+        <v>3.243644357108444</v>
       </c>
       <c r="R7">
-        <v>49.310355036635</v>
+        <v>29.192799213976</v>
       </c>
       <c r="S7">
-        <v>0.001612633982631696</v>
+        <v>0.002228256267721148</v>
       </c>
       <c r="T7">
-        <v>0.001639688468605353</v>
+        <v>0.00223828560857248</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,14 +897,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.84771233333333</v>
+        <v>20.72916433333333</v>
       </c>
       <c r="H8">
-        <v>38.543137</v>
+        <v>62.187493</v>
       </c>
       <c r="I8">
-        <v>0.232122675124013</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="J8">
-        <v>0.2321765522948462</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>170.848841</v>
       </c>
       <c r="O8">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P8">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q8">
-        <v>731.6722538838019</v>
+        <v>1180.517900416179</v>
       </c>
       <c r="R8">
-        <v>6585.050284954217</v>
+        <v>10624.66110374561</v>
       </c>
       <c r="S8">
-        <v>0.2153558995664529</v>
+        <v>0.8109694285671702</v>
       </c>
       <c r="T8">
-        <v>0.2189688354383962</v>
+        <v>0.8146195871853387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.84771233333333</v>
+        <v>20.72916433333333</v>
       </c>
       <c r="H9">
-        <v>38.543137</v>
+        <v>62.187493</v>
       </c>
       <c r="I9">
-        <v>0.232122675124013</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="J9">
-        <v>0.2321765522948462</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N9">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O9">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P9">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q9">
-        <v>4.519131422400668</v>
+        <v>2.318743593162333</v>
       </c>
       <c r="R9">
-        <v>40.67218280160601</v>
+        <v>20.868692338461</v>
       </c>
       <c r="S9">
-        <v>0.001330133276974965</v>
+        <v>0.001592885771641174</v>
       </c>
       <c r="T9">
-        <v>0.001352448366742753</v>
+        <v>0.001600055321469195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.84771233333333</v>
+        <v>20.72916433333333</v>
       </c>
       <c r="H10">
-        <v>38.543137</v>
+        <v>62.187493</v>
       </c>
       <c r="I10">
-        <v>0.232122675124013</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="J10">
-        <v>0.2321765522948462</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N10">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O10">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P10">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q10">
-        <v>38.49693020259317</v>
+        <v>16.231495360437</v>
       </c>
       <c r="R10">
-        <v>230.981581215559</v>
+        <v>97.38897216262198</v>
       </c>
       <c r="S10">
-        <v>0.01133094905583646</v>
+        <v>0.01115039976319182</v>
       </c>
       <c r="T10">
-        <v>0.007680695766599135</v>
+        <v>0.007467058339540906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.84771233333333</v>
+        <v>20.72916433333333</v>
       </c>
       <c r="H11">
-        <v>38.543137</v>
+        <v>62.187493</v>
       </c>
       <c r="I11">
-        <v>0.232122675124013</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="J11">
-        <v>0.2321765522948462</v>
+        <v>0.8294921766624126</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N11">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O11">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P11">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q11">
-        <v>8.470175548558332</v>
+        <v>5.16944591116811</v>
       </c>
       <c r="R11">
-        <v>76.231579937025</v>
+        <v>46.52501320051299</v>
       </c>
       <c r="S11">
-        <v>0.002493059242116953</v>
+        <v>0.003551206292688116</v>
       </c>
       <c r="T11">
-        <v>0.002534884254502762</v>
+        <v>0.003567190207491232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0385315</v>
+        <v>3.411064666666667</v>
       </c>
       <c r="H12">
-        <v>0.07706299999999999</v>
+        <v>10.233194</v>
       </c>
       <c r="I12">
-        <v>0.0006961577769246628</v>
+        <v>0.1364961659616788</v>
       </c>
       <c r="J12">
-        <v>0.0004642129064247606</v>
+        <v>0.1364961659616789</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4264516666666667</v>
+        <v>0.1564773333333333</v>
       </c>
       <c r="N12">
-        <v>1.279355</v>
+        <v>0.469432</v>
       </c>
       <c r="O12">
-        <v>0.00694733498901017</v>
+        <v>0.002686289672660777</v>
       </c>
       <c r="P12">
-        <v>0.007062248329551709</v>
+        <v>0.002698380613520143</v>
       </c>
       <c r="Q12">
-        <v>0.01643182239416667</v>
+        <v>0.5337543028675555</v>
       </c>
       <c r="R12">
-        <v>0.09859093436499999</v>
+        <v>4.803788725808</v>
       </c>
       <c r="S12">
-        <v>4.836441281500247E-06</v>
+        <v>0.0003666682409806493</v>
       </c>
       <c r="T12">
-        <v>3.27838682295461E-06</v>
+        <v>0.0003683186080508223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0385315</v>
+        <v>3.411064666666667</v>
       </c>
       <c r="H13">
-        <v>0.07706299999999999</v>
+        <v>10.233194</v>
       </c>
       <c r="I13">
-        <v>0.0006961577769246628</v>
+        <v>0.1364961659616788</v>
       </c>
       <c r="J13">
-        <v>0.0004642129064247606</v>
+        <v>0.1364961659616789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>170.848841</v>
       </c>
       <c r="O13">
-        <v>0.9277676101716374</v>
+        <v>0.9776697736080268</v>
       </c>
       <c r="P13">
-        <v>0.9431134766801204</v>
+        <v>0.9820702474411319</v>
       </c>
       <c r="Q13">
-        <v>2.194354038997167</v>
+        <v>194.2588149586838</v>
       </c>
       <c r="R13">
-        <v>13.166124233983</v>
+        <v>1748.329334628154</v>
       </c>
       <c r="S13">
-        <v>0.0006458726369997943</v>
+        <v>0.1334481756741182</v>
       </c>
       <c r="T13">
-        <v>0.0004378054480980394</v>
+        <v>0.1340488234807518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.0385315</v>
+        <v>3.411064666666667</v>
       </c>
       <c r="H14">
-        <v>0.07706299999999999</v>
+        <v>10.233194</v>
       </c>
       <c r="I14">
-        <v>0.0006961577769246628</v>
+        <v>0.1364961659616788</v>
       </c>
       <c r="J14">
-        <v>0.0004642129064247606</v>
+        <v>0.1364961659616789</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.3517460000000001</v>
+        <v>0.111859</v>
       </c>
       <c r="N14">
-        <v>1.055238</v>
+        <v>0.335577</v>
       </c>
       <c r="O14">
-        <v>0.005730303066102149</v>
+        <v>0.001920314400131405</v>
       </c>
       <c r="P14">
-        <v>0.005825085924375554</v>
+        <v>0.001928957700248916</v>
       </c>
       <c r="Q14">
-        <v>0.013553300999</v>
+        <v>0.3815582825486667</v>
       </c>
       <c r="R14">
-        <v>0.081319805994</v>
+        <v>3.434024542938</v>
       </c>
       <c r="S14">
-        <v>3.989195043602251E-06</v>
+        <v>0.000262115553058938</v>
       </c>
       <c r="T14">
-        <v>2.704080067128339E-06</v>
+        <v>0.0002632953303862345</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.0385315</v>
+        <v>3.411064666666667</v>
       </c>
       <c r="H15">
-        <v>0.07706299999999999</v>
+        <v>10.233194</v>
       </c>
       <c r="I15">
-        <v>0.0006961577769246628</v>
+        <v>0.1364961659616788</v>
       </c>
       <c r="J15">
-        <v>0.0004642129064247606</v>
+        <v>0.1364961659616789</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.9964035</v>
+        <v>0.7830269999999999</v>
       </c>
       <c r="N15">
-        <v>5.992807</v>
+        <v>1.566054</v>
       </c>
       <c r="O15">
-        <v>0.04881448591690938</v>
+        <v>0.0134424411427931</v>
       </c>
       <c r="P15">
-        <v>0.03308127237950044</v>
+        <v>0.009001963550260048</v>
       </c>
       <c r="Q15">
-        <v>0.11545592146025</v>
+        <v>2.670955732746</v>
       </c>
       <c r="R15">
-        <v>0.461823685841</v>
+        <v>16.025734396476</v>
       </c>
       <c r="S15">
-        <v>3.39825839976359E-05</v>
+        <v>0.001834841677156787</v>
       </c>
       <c r="T15">
-        <v>1.535675359951706E-05</v>
+        <v>0.001228733510737279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,371 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.0385315</v>
+        <v>3.411064666666667</v>
       </c>
       <c r="H16">
-        <v>0.07706299999999999</v>
+        <v>10.233194</v>
       </c>
       <c r="I16">
-        <v>0.0006961577769246628</v>
+        <v>0.1364961659616788</v>
       </c>
       <c r="J16">
-        <v>0.0004642129064247606</v>
+        <v>0.1364961659616789</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.6592749999999999</v>
+        <v>0.2493803333333333</v>
       </c>
       <c r="N16">
-        <v>1.977825</v>
+        <v>0.7481409999999999</v>
       </c>
       <c r="O16">
-        <v>0.01074026585634092</v>
+        <v>0.004281181176387862</v>
       </c>
       <c r="P16">
-        <v>0.01091791668645185</v>
+        <v>0.004300450694838813</v>
       </c>
       <c r="Q16">
-        <v>0.02540285466249999</v>
+        <v>0.8506524435948889</v>
       </c>
       <c r="R16">
-        <v>0.152417127975</v>
+        <v>7.655871992354</v>
       </c>
       <c r="S16">
-        <v>7.476919602130155E-06</v>
+        <v>0.000584364816364253</v>
       </c>
       <c r="T16">
-        <v>5.068237837121206E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>40.16012566666667</v>
-      </c>
-      <c r="H17">
-        <v>120.480377</v>
-      </c>
-      <c r="I17">
-        <v>0.7255825442851112</v>
-      </c>
-      <c r="J17">
-        <v>0.725750956675978</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.4264516666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.279355</v>
-      </c>
-      <c r="O17">
-        <v>0.00694733498901017</v>
-      </c>
-      <c r="P17">
-        <v>0.007062248329551709</v>
-      </c>
-      <c r="Q17">
-        <v>17.12635252409278</v>
-      </c>
-      <c r="R17">
-        <v>154.137172716835</v>
-      </c>
-      <c r="S17">
-        <v>0.005040864997326974</v>
-      </c>
-      <c r="T17">
-        <v>0.00512543348145548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>40.16012566666667</v>
-      </c>
-      <c r="H18">
-        <v>120.480377</v>
-      </c>
-      <c r="I18">
-        <v>0.7255825442851112</v>
-      </c>
-      <c r="J18">
-        <v>0.725750956675978</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>56.94961366666666</v>
-      </c>
-      <c r="N18">
-        <v>170.848841</v>
-      </c>
-      <c r="O18">
-        <v>0.9277676101716374</v>
-      </c>
-      <c r="P18">
-        <v>0.9431134766801204</v>
-      </c>
-      <c r="Q18">
-        <v>2287.103641521451</v>
-      </c>
-      <c r="R18">
-        <v>20583.93277369306</v>
-      </c>
-      <c r="S18">
-        <v>0.6731719830936539</v>
-      </c>
-      <c r="T18">
-        <v>0.684465507954605</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>40.16012566666667</v>
-      </c>
-      <c r="H19">
-        <v>120.480377</v>
-      </c>
-      <c r="I19">
-        <v>0.7255825442851112</v>
-      </c>
-      <c r="J19">
-        <v>0.725750956675978</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.3517460000000001</v>
-      </c>
-      <c r="N19">
-        <v>1.055238</v>
-      </c>
-      <c r="O19">
-        <v>0.005730303066102149</v>
-      </c>
-      <c r="P19">
-        <v>0.005825085924375554</v>
-      </c>
-      <c r="Q19">
-        <v>14.12616356274733</v>
-      </c>
-      <c r="R19">
-        <v>127.135472064726</v>
-      </c>
-      <c r="S19">
-        <v>0.004157807878227171</v>
-      </c>
-      <c r="T19">
-        <v>0.004227561682335332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>40.16012566666667</v>
-      </c>
-      <c r="H20">
-        <v>120.480377</v>
-      </c>
-      <c r="I20">
-        <v>0.7255825442851112</v>
-      </c>
-      <c r="J20">
-        <v>0.725750956675978</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.9964035</v>
-      </c>
-      <c r="N20">
-        <v>5.992807</v>
-      </c>
-      <c r="O20">
-        <v>0.04881448591690938</v>
-      </c>
-      <c r="P20">
-        <v>0.03308127237950044</v>
-      </c>
-      <c r="Q20">
-        <v>120.3359411080398</v>
-      </c>
-      <c r="R20">
-        <v>722.015646648239</v>
-      </c>
-      <c r="S20">
-        <v>0.03541893888956083</v>
-      </c>
-      <c r="T20">
-        <v>0.02400876507748105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>40.16012566666667</v>
-      </c>
-      <c r="H21">
-        <v>120.480377</v>
-      </c>
-      <c r="I21">
-        <v>0.7255825442851112</v>
-      </c>
-      <c r="J21">
-        <v>0.725750956675978</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.6592749999999999</v>
-      </c>
-      <c r="N21">
-        <v>1.977825</v>
-      </c>
-      <c r="O21">
-        <v>0.01074026585634092</v>
-      </c>
-      <c r="P21">
-        <v>0.01091791668645185</v>
-      </c>
-      <c r="Q21">
-        <v>26.47656684889166</v>
-      </c>
-      <c r="R21">
-        <v>238.289101640025</v>
-      </c>
-      <c r="S21">
-        <v>0.007792949426342353</v>
-      </c>
-      <c r="T21">
-        <v>0.007923688480101054</v>
+        <v>0.0005869950317527357</v>
       </c>
     </row>
   </sheetData>
